--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>774854.0542359934</v>
+        <v>775638.2001740221</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -656,70 +658,70 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>31.1509994400877</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D2" t="n">
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E2" t="n">
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>9.336946277399601</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>1.4361844420625</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>120.4324765878912</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>205.5178444382804</v>
+        <v>158.2881417686508</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1130,73 +1132,73 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>10.82243774959086</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>120.0500723064956</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1376,58 +1378,58 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F11" t="n">
+      <c r="T11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G11" t="n">
+      <c r="U11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1449,16 +1451,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>68.64566439629107</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>199.6767861412382</v>
       </c>
     </row>
     <row r="13">
@@ -1607,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>140.7340398800815</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>53.67472280927132</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>39.77286532336496</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>190.3453970742847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1920,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1938,7 +1940,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>63.28069359021595</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1980,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="V20" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>26.20075604774391</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>29.87813723235858</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,28 +2362,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>80.16374038692172</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,67 +2554,67 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
+        <v>9.234466016111892</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2637,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>63.14223173826446</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2649,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>69.1812207546302</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2694,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
@@ -2813,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>50.46697834767983</v>
       </c>
     </row>
     <row r="30">
@@ -2886,13 +2888,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>8.085252827476545</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>79.44674520176419</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2937,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3038,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3108,7 +3110,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,19 +3119,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>40.44188220513456</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3320,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>120.1832748619387</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>127.9331172856529</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -3402,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3506,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3545,31 +3547,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3591,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>90.96447429313291</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -3600,10 +3602,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>36.03848607742202</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3828,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>74.18897445000876</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>14.69006202085835</v>
       </c>
     </row>
     <row r="43">
@@ -3980,19 +3982,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4053,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>48.32160706581265</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>100.2190706010059</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4119,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639.2227743377304</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C2" t="n">
-        <v>431.628992076841</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D2" t="n">
-        <v>224.0352098159517</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="E2" t="n">
         <v>16.44142755506243</v>
@@ -4331,16 +4333,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="Y2" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.87268642112264</v>
+        <v>304.2635924286101</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H3" t="n">
         <v>16.44142755506243</v>
@@ -4410,49 +4412,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>719.4511569503886</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>719.4511569503886</v>
       </c>
       <c r="U3" t="n">
-        <v>441.0602509429012</v>
+        <v>719.4511569503886</v>
       </c>
       <c r="V3" t="n">
-        <v>233.4664686820119</v>
+        <v>511.8573746894994</v>
       </c>
       <c r="W3" t="n">
-        <v>25.87268642112264</v>
+        <v>511.8573746894994</v>
       </c>
       <c r="X3" t="n">
-        <v>25.87268642112264</v>
+        <v>511.8573746894994</v>
       </c>
       <c r="Y3" t="n">
-        <v>25.87268642112264</v>
+        <v>304.2635924286101</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C5" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D5" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E5" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F5" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H5" t="n">
         <v>16.44142755506243</v>
@@ -4571,16 +4573,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4610,7 +4612,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>324.6132922217692</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C6" t="n">
-        <v>324.6132922217692</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D6" t="n">
-        <v>175.6788825605179</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4653,43 +4655,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>700.4224115027265</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>700.4224115027265</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U6" t="n">
-        <v>492.8286292418372</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="V6" t="n">
-        <v>492.8286292418372</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="W6" t="n">
-        <v>492.8286292418372</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="X6" t="n">
-        <v>492.8286292418372</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="Y6" t="n">
-        <v>492.8286292418372</v>
+        <v>185.4108972279162</v>
       </c>
     </row>
     <row r="7">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
         <v>224.0352098159517</v>
@@ -4787,7 +4789,7 @@
         <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
         <v>16.44142755506243</v>
@@ -4814,7 +4816,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4841,13 +4843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>430.1284956402842</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>255.6754663591572</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I9" t="n">
         <v>16.44142755506243</v>
@@ -4887,16 +4889,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>232.5025681519757</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P9" t="n">
         <v>822.0713777531216</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>345.2979091154422</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U9" t="n">
-        <v>345.2979091154422</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V9" t="n">
-        <v>137.7041268545529</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W9" t="n">
-        <v>137.7041268545529</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X9" t="n">
-        <v>16.44142755506243</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>441.0602509429012</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5048,7 +5050,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5060,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>653.8560407330535</v>
+        <v>278.7449728087344</v>
       </c>
       <c r="C12" t="n">
-        <v>584.516985787305</v>
+        <v>278.7449728087344</v>
       </c>
       <c r="D12" t="n">
-        <v>435.5825761260537</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="E12" t="n">
-        <v>276.3451211205982</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F12" t="n">
         <v>129.8105631474831</v>
@@ -5124,19 +5126,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5145,25 +5147,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0713777531216</v>
+        <v>446.9603098288024</v>
       </c>
     </row>
     <row r="13">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C14" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5279,19 +5281,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5306,22 +5308,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W14" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X14" t="n">
         <v>406.8838132313431</v>
       </c>
       <c r="Y14" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>297.3278488109131</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G15" t="n">
         <v>16.44142755506243</v>
@@ -5364,10 +5366,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5379,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>767.8544860265849</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>594.4371414772538</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>392.2505468360198</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>392.2505468360198</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>184.6567645751305</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y15" t="n">
-        <v>184.6567645751305</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="E17" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="F17" t="n">
-        <v>710.516763498309</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="G17" t="n">
-        <v>467.067986854209</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>223.6192102101089</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>459.5201808117111</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>312.9856228385961</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>174.2547974212116</v>
       </c>
       <c r="H18" t="n">
         <v>110.334904905842</v>
@@ -5598,10 +5600,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
         <v>542.809531908403</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="19">
@@ -5698,16 +5700,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5785,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>694.6722890434539</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C21" t="n">
-        <v>694.6722890434539</v>
+        <v>587.4175315882752</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>438.4831219270239</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>279.2456669215684</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>279.2456669215684</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>140.5148415041839</v>
       </c>
       <c r="H21" t="n">
         <v>110.334904905842</v>
@@ -5835,46 +5837,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y21" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="22">
@@ -5938,10 +5940,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>582.8795121963512</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>408.4264829152243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>259.492073253973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>100.2546182485175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>100.2546182485175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>100.2546182485175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W24" t="n">
-        <v>790.6398109613051</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>790.6398109613051</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>582.8795121963512</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6169,7 +6171,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>83.81530782185143</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="C27" t="n">
-        <v>83.81530782185143</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>894.1771345463633</v>
       </c>
       <c r="U27" t="n">
-        <v>562.4161926976942</v>
+        <v>665.9535162827524</v>
       </c>
       <c r="V27" t="n">
-        <v>327.2640844659515</v>
+        <v>430.8014080510097</v>
       </c>
       <c r="W27" t="n">
-        <v>83.81530782185143</v>
+        <v>430.8014080510097</v>
       </c>
       <c r="X27" t="n">
-        <v>83.81530782185143</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="Y27" t="n">
-        <v>83.81530782185143</v>
+        <v>222.9499078454769</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>158.0119685275972</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C30" t="n">
-        <v>158.0119685275972</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>118.5018269537981</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,16 +6548,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>609.2210439366512</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>609.2210439366512</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>609.2210439366512</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>365.7722672925511</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>365.7722672925511</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y30" t="n">
-        <v>158.0119685275972</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="31">
@@ -6646,7 +6648,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>459.5201808117111</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>459.5201808117111</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>459.5201808117111</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>459.5201808117111</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>312.9856228385961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>174.2547974212116</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>60.88566182879093</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M33" t="n">
+        <v>304.2053859195205</v>
+      </c>
+      <c r="N33" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N33" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="V33" t="n">
-        <v>627.7355178317791</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="W33" t="n">
-        <v>627.7355178317791</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X33" t="n">
-        <v>627.7355178317791</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y33" t="n">
-        <v>627.7355178317791</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C35" t="n">
         <v>749.627473042513</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9294114938717</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C36" t="n">
-        <v>352.9294114938717</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D36" t="n">
-        <v>352.9294114938717</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E36" t="n">
-        <v>352.9294114938717</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F36" t="n">
-        <v>352.9294114938717</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
         <v>223.7040404982626</v>
@@ -7020,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7050,16 +7052,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.1447485139397</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>90.33569644483418</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>577.2332497330343</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>333.7844730889342</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>333.7844730889342</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7239,31 +7241,31 @@
         <v>454.3181732824481</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>307.7836153093331</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>169.0527898919486</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>55.6836542995279</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="M39" t="n">
         <v>304.2053859195205</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N39" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7360,13 +7362,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
         <v>431.628992076841</v>
@@ -7418,13 +7420,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7454,7 +7456,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>92.13391823816002</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>92.13391823816002</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>366.5706756325438</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N42" t="n">
         <v>366.5706756325438</v>
@@ -7515,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7628,16 +7630,16 @@
         <v>199.2900309704538</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7652,16 +7654,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7701,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>441.0602509429012</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="C45" t="n">
-        <v>266.6072216617742</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>117.672812000523</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
         <v>16.44142755506243</v>
@@ -7728,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>626.8294255367553</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>809.472903150106</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7767,10 +7769,10 @@
         <v>441.0602509429012</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y45" t="n">
-        <v>441.0602509429012</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="46">
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7988,10 +7990,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>360.3696370111358</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8058,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
@@ -8073,10 +8075,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>383.7408211888696</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8228,10 +8230,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,19 +8303,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O6" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8462,10 +8464,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8535,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8696,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
@@ -8781,13 +8783,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>234.2160227667432</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,10 +8929,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
@@ -8939,10 +8941,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,13 +9014,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9483,22 +9485,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>295.1552315763977</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,19 +10196,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11066,16 +11068,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11300,10 +11302,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M44" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.7075060082595</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.7137242822432</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>350.7793706321741</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22592,10 +22594,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,10 +22606,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22626,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>163.3715527109161</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22641,7 +22643,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2469866617753</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22799,7 +22801,7 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22866,10 +22868,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>51.25069451594666</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>67.65324031232404</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -23018,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23081,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>155.7107459002765</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23118,7 +23120,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23145,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>85.7229128969819</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23264,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23337,16 +23339,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>104.0628345920247</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23385,7 +23387,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>6.00590963606615</v>
       </c>
     </row>
     <row r="13">
@@ -23495,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,7 +23512,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23546,22 +23548,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23577,16 +23579,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>16.91104057531948</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23619,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>46.48311134337182</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>375.5298721917701</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>20.13049249612121</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23808,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23826,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>48.95475064628051</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23868,7 +23870,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23938,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24023,19 +24025,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>121.2443095168948</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>82.35730700413788</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24178,13 +24180,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,28 +24250,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>179.3857036041843</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,13 +24287,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24300,7 +24302,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>32.07170384957475</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24333,22 +24335,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>242.1111868917246</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24525,7 +24527,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>84.3028338263743</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24537,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,10 +24572,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>130.9835079401914</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24582,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24686,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24737,7 +24739,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>125.4575720412377</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>335.7709603083737</v>
       </c>
     </row>
     <row r="30">
@@ -24774,13 +24776,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>104.1501914090199</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>120.7179834930574</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24825,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24886,10 +24888,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24926,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24996,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,19 +25007,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>48.95475064628052</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>15.53384003736741</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25208,7 +25210,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>27.2617907027001</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>9.410399877557694</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25290,7 +25292,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25394,13 +25396,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>336.5320379404362</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25433,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25479,7 +25481,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>54.10473810025097</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25488,10 +25490,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>53.35814677399306</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,10 +25633,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>173.6629242394456</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25716,19 +25718,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>38.04646978648771</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>190.992633756446</v>
       </c>
     </row>
     <row r="43">
@@ -25868,7 +25870,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25941,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>124.3868919225031</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>57.42600985439501</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -26007,7 +26009,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>425996.6471213619</v>
+        <v>425996.6471213618</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>425996.6471213619</v>
+        <v>425996.647121362</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>425996.6471213619</v>
+        <v>425996.6471213618</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>425996.6471213618</v>
+        <v>425996.6471213619</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>448693.3607796696</v>
+        <v>448693.3607796695</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>448693.3607796695</v>
+        <v>448693.3607796694</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>425996.6471213618</v>
+        <v>425996.647121362</v>
       </c>
     </row>
     <row r="16">
@@ -26314,7 +26316,7 @@
         <v>134093.9955596919</v>
       </c>
       <c r="C2" t="n">
-        <v>134093.9955596919</v>
+        <v>134093.9955596918</v>
       </c>
       <c r="D2" t="n">
         <v>134093.9955596919</v>
@@ -26418,10 +26420,10 @@
         <v>8092.707817725994</v>
       </c>
       <c r="C4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="D4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="E4" t="n">
         <v>8092.707817725995</v>
@@ -26430,7 +26432,7 @@
         <v>8092.707817725995</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
@@ -26457,7 +26459,7 @@
         <v>8092.707817725995</v>
       </c>
       <c r="P4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
     </row>
     <row r="5">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11004.44621842858</v>
+        <v>11004.44621842857</v>
       </c>
       <c r="C6" t="n">
-        <v>79878.20280011842</v>
+        <v>79878.20280011839</v>
       </c>
       <c r="D6" t="n">
-        <v>79878.20280011842</v>
+        <v>79878.20280011845</v>
       </c>
       <c r="E6" t="n">
         <v>113505.8028001184</v>
@@ -26534,31 +26536,31 @@
         <v>113505.8028001184</v>
       </c>
       <c r="G6" t="n">
-        <v>108306.7488443614</v>
+        <v>108306.7488443613</v>
       </c>
       <c r="H6" t="n">
-        <v>118035.7918185285</v>
+        <v>118035.7918185284</v>
       </c>
       <c r="I6" t="n">
-        <v>118035.7918185285</v>
+        <v>118035.7918185284</v>
       </c>
       <c r="J6" t="n">
-        <v>64263.28092831904</v>
+        <v>64263.28092831901</v>
       </c>
       <c r="K6" t="n">
         <v>118035.7918185285</v>
       </c>
       <c r="L6" t="n">
-        <v>118035.7918185285</v>
+        <v>118035.7918185284</v>
       </c>
       <c r="M6" t="n">
         <v>118035.7918185285</v>
       </c>
       <c r="N6" t="n">
-        <v>118035.7918185285</v>
+        <v>118035.7918185284</v>
       </c>
       <c r="O6" t="n">
-        <v>113505.8028001184</v>
+        <v>113505.8028001185</v>
       </c>
       <c r="P6" t="n">
         <v>113505.8028001184</v>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34708,10 +34710,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>130.2714255894491</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
@@ -34793,10 +34795,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,7 +34941,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>147.9744062188824</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34948,10 +34950,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,10 +35184,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35416,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N11" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N11" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,7 +35494,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
@@ -35501,13 +35503,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>91.61977832229879</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
@@ -35659,10 +35661,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N15" t="n">
         <v>91.61977832229879</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,13 +35968,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,10 +36679,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37148,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37786,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38020,10 +38022,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M44" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>12.72573192223796</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>775638.2001740221</v>
+        <v>671405.7019105789</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5056475.237489416</v>
+        <v>5056475.237489415</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4361844420625</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
+        <v>186.3732331246961</v>
+      </c>
+      <c r="W3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>31.15099944008764</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
+      <c r="Y5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H5" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>158.2881417686508</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.82243774959086</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>81.13095251577728</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V11" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>80.86228322859418</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>199.6767861412382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1651,31 +1651,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>140.7340398800815</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1858,58 +1858,58 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>39.77286532336496</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T17" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,16 +1937,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>68.84126413866905</v>
       </c>
       <c r="H18" t="n">
-        <v>63.28069359021595</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,28 +2162,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>29.87813723235858</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U23" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>65.1306020652372</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2459,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,20 +2557,20 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -2611,10 +2611,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>9.234466016111892</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2648,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>69.1812207546302</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2696,7 +2696,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.234466016111835</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>50.46697834767983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>8.085252827476545</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,58 +3043,58 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I32" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>184.6308886574542</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>82.71243518046262</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3189,67 +3189,67 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3310,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3347,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>120.1832748619387</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>99.22041616487701</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3584,25 +3584,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>103.7130553628818</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>36.03848607742202</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>31.15099944008764</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3757,7 +3757,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -3875,19 +3875,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>159.0347330949086</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3976,67 +3976,67 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="T44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>48.32160706581265</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>8.311618392921693</v>
       </c>
     </row>
     <row r="46">
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.90708355515102</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C2" t="n">
-        <v>47.90708355515102</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
         <v>16.44142755506243</v>
@@ -4333,49 +4333,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>463.0946480769296</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>463.0946480769296</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U2" t="n">
-        <v>463.0946480769296</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V2" t="n">
-        <v>255.5008658160403</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W2" t="n">
-        <v>47.90708355515102</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X2" t="n">
-        <v>47.90708355515102</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.90708355515102</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>304.2635924286101</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
         <v>16.44142755506243</v>
@@ -4415,46 +4415,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
         <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>719.4511569503886</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>719.4511569503886</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U3" t="n">
-        <v>719.4511569503886</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V3" t="n">
-        <v>511.8573746894994</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W3" t="n">
-        <v>511.8573746894994</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>511.8573746894994</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>304.2635924286101</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4527,13 +4527,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
         <v>16.44142755506243</v>
@@ -4570,19 +4570,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4591,28 +4591,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.19556020784815</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="C6" t="n">
-        <v>17.19556020784815</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="D6" t="n">
-        <v>17.19556020784815</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19556020784815</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>345.2979091154422</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U6" t="n">
-        <v>185.4108972279162</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V6" t="n">
-        <v>185.4108972279162</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W6" t="n">
-        <v>185.4108972279162</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X6" t="n">
-        <v>185.4108972279162</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y6" t="n">
-        <v>185.4108972279162</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="8">
@@ -4813,7 +4813,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4837,19 +4837,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W8" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="Y8" t="n">
         <v>431.628992076841</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>430.1284956402842</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C9" t="n">
-        <v>255.6754663591572</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
         <v>16.44142755506243</v>
@@ -4895,13 +4895,13 @@
         <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O9" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4919,16 +4919,16 @@
         <v>648.6540332037905</v>
       </c>
       <c r="V9" t="n">
-        <v>648.6540332037905</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W9" t="n">
-        <v>648.6540332037905</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="X9" t="n">
-        <v>441.0602509429012</v>
+        <v>359.1097938562575</v>
       </c>
       <c r="Y9" t="n">
-        <v>441.0602509429012</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -5001,13 +5001,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5053,40 +5053,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>37.81546818692397</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>278.7449728087344</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>278.7449728087344</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>129.8105631474831</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
         <v>16.44142755506243</v>
@@ -5132,40 +5132,40 @@
         <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>752.1869855945927</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>648.6540332037905</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T12" t="n">
-        <v>648.6540332037905</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U12" t="n">
-        <v>648.6540332037905</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V12" t="n">
-        <v>648.6540332037905</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W12" t="n">
-        <v>648.6540332037905</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X12" t="n">
-        <v>648.6540332037905</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>446.9603098288024</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="D14" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="E14" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="F14" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="G14" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="D14" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5299,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T14" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U14" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V14" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W14" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X14" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y14" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>297.3278488109131</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
         <v>16.44142755506243</v>
@@ -5366,10 +5366,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>639.4279001397708</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
         <v>639.4279001397708</v>
@@ -5387,22 +5387,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>204.697218590109</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X15" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>527.5764290961142</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>527.5764290961142</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V17" t="n">
-        <v>527.5764290961142</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W17" t="n">
-        <v>527.5764290961142</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X17" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>459.5201808117111</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C18" t="n">
-        <v>459.5201808117111</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D18" t="n">
-        <v>459.5201808117111</v>
+        <v>235.3523315264278</v>
       </c>
       <c r="E18" t="n">
-        <v>459.5201808117111</v>
+        <v>235.3523315264278</v>
       </c>
       <c r="F18" t="n">
-        <v>312.9856228385961</v>
+        <v>88.81777355331278</v>
       </c>
       <c r="G18" t="n">
-        <v>174.2547974212116</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5633,13 +5633,13 @@
         <v>627.7355178317791</v>
       </c>
       <c r="W18" t="n">
-        <v>627.7355178317791</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X18" t="n">
-        <v>627.7355178317791</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y18" t="n">
-        <v>627.7355178317791</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="19">
@@ -5706,10 +5706,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W20" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="X20" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="W20" t="n">
+      <c r="Y20" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="X20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>587.4175315882752</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>438.4831219270239</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>279.2456669215684</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>279.2456669215684</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>140.5148415041839</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
-        <v>761.8705608694022</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5940,13 +5940,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="24">
@@ -6071,46 +6071,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>898.2686685760532</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>670.0450503124422</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>434.8929420806995</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6174,16 +6174,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.7999090013961</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U26" t="n">
-        <v>518.2486856454962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V26" t="n">
-        <v>274.7999090013961</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W26" t="n">
-        <v>274.7999090013961</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X26" t="n">
-        <v>274.7999090013961</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.7999090013961</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C27" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D27" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E27" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F27" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>894.1771345463633</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>665.9535162827524</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>430.8014080510097</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>430.8014080510097</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>222.9499078454769</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>518.2486856454962</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C29" t="n">
+        <v>284.1276524520142</v>
+      </c>
+      <c r="D29" t="n">
+        <v>284.1276524520142</v>
+      </c>
+      <c r="E29" t="n">
+        <v>284.1276524520142</v>
+      </c>
+      <c r="F29" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="D29" t="n">
-        <v>274.7999090013961</v>
-      </c>
-      <c r="E29" t="n">
-        <v>274.7999090013961</v>
-      </c>
-      <c r="F29" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
         <v>31.35113235729608</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V29" t="n">
-        <v>569.2254314512334</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W29" t="n">
-        <v>569.2254314512334</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X29" t="n">
-        <v>569.2254314512334</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y29" t="n">
-        <v>518.2486856454962</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>257.2326523711826</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C30" t="n">
-        <v>257.2326523711826</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D30" t="n">
-        <v>257.2326523711826</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E30" t="n">
-        <v>257.2326523711826</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F30" t="n">
-        <v>257.2326523711826</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G30" t="n">
-        <v>118.5018269537981</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6575,19 +6575,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>257.2326523711826</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y30" t="n">
-        <v>257.2326523711826</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="31">
@@ -6648,16 +6648,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>962.2293816994886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>962.2293816994886</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>718.7806050553886</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X32" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y32" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6785,46 +6785,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>777.5613083818946</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>777.5613083818946</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="V33" t="n">
-        <v>777.5613083818946</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="W33" t="n">
-        <v>777.5613083818946</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="X33" t="n">
-        <v>569.7098081763618</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="Y33" t="n">
-        <v>361.9495094114078</v>
+        <v>577.1531170985884</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E35" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7204,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>454.3181732824481</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C39" t="n">
-        <v>454.3181732824481</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="D39" t="n">
-        <v>454.3181732824481</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>454.3181732824481</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>307.7836153093331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>169.0527898919486</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>55.6836542995279</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7262,13 +7262,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>454.3181732824481</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>454.3181732824481</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X39" t="n">
-        <v>454.3181732824481</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y39" t="n">
-        <v>454.3181732824481</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="40">
@@ -7362,13 +7362,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>670.6884303378189</v>
+      </c>
+      <c r="C41" t="n">
+        <v>670.6884303378189</v>
+      </c>
+      <c r="D41" t="n">
+        <v>670.6884303378189</v>
+      </c>
+      <c r="E41" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="C41" t="n">
-        <v>639.2227743377304</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="F41" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="E41" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="G41" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7417,16 +7417,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7435,28 +7435,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="Y41" t="n">
-        <v>639.2227743377304</v>
+        <v>670.6884303378189</v>
       </c>
     </row>
     <row r="42">
@@ -7499,43 +7499,43 @@
         <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T42" t="n">
-        <v>446.4674385625565</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U42" t="n">
-        <v>238.8736563016672</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V42" t="n">
-        <v>238.8736563016672</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="W42" t="n">
-        <v>31.27987404077794</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="X42" t="n">
-        <v>31.27987404077794</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="43">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7654,7 +7654,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7672,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y44" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>65.2511316619439</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
         <v>16.44142755506243</v>
@@ -7730,19 +7730,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X45" t="n">
-        <v>233.4664686820119</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y45" t="n">
-        <v>233.4664686820119</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="46">
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7993,10 +7993,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>360.3696370111358</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8230,10 +8230,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8461,10 +8461,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8543,16 +8543,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8701,13 +8701,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8780,16 +8780,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O12" t="n">
-        <v>143.091025904242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,13 +9014,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
-        <v>222.9614904056321</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>255.5148970497678</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>243.2069195535496</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9971,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10205,10 +10205,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10433,7 +10433,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,7 +10670,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10682,10 +10682,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11074,10 +11074,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11147,19 +11147,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,10 +11302,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22549,13 +22549,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>350.7793706321741</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22606,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>198.7016825117765</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22643,7 +22643,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2469866617753</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>46.42735402472914</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22798,10 +22798,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22831,10 +22831,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>177.8690701461577</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22877,7 +22877,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>128.006570885811</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>67.65324031232404</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23077,16 +23077,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>155.7107459002765</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23120,7 +23120,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23159,13 +23159,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>170.5640306451423</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,22 +23302,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>306.591958244592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23354,7 +23354,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>90.82088787524364</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.00590963606615</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>16.91104057531948</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23627,19 +23627,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>19.39975207878135</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23746,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>375.5298721917701</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23825,16 +23825,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>68.50225302454159</v>
       </c>
       <c r="H18" t="n">
-        <v>48.95475064628051</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23946,13 +23946,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,7 +23974,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24025,16 +24025,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,28 +24050,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>82.35730700413788</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,22 +24098,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>230.1618975371121</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>135.0341266295844</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24414,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>242.1111868917246</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24536,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>108.2910995245859</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24575,7 +24575,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>130.9835079401914</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>397.6415797255996</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24727,13 +24727,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>335.7709603083737</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24773,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>104.1501914090199</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>39.33893758286199</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24973,16 +24973,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>15.53384003736741</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>143.2289469005122</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25061,10 +25061,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,22 +25156,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25235,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>27.2617907027001</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>106.5525690386005</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25371,10 +25371,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25444,13 +25444,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25472,25 +25472,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>43.73201020175699</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>53.35814677399306</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,10 +25633,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>350.7793706321742</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25645,7 +25645,7 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25675,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>73.76585405451664</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.992633756446</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25882,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25912,19 +25912,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>296.6012590300472</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>124.3868919225031</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25994,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26003,7 +26003,7 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26012,7 +26012,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>197.3710773843827</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>425996.6471213618</v>
+        <v>425996.647121362</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>425996.647121362</v>
+        <v>425996.6471213618</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>425996.6471213618</v>
+        <v>425996.6471213619</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>448693.3607796695</v>
+        <v>448693.3607796694</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>448693.3607796694</v>
+        <v>448693.3607796695</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448693.3607796696</v>
+        <v>448693.3607796694</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>425996.647121362</v>
+        <v>425996.6471213619</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>425996.647121362</v>
+        <v>425996.6471213619</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>134093.9955596919</v>
       </c>
       <c r="C2" t="n">
-        <v>134093.9955596918</v>
+        <v>134093.9955596919</v>
       </c>
       <c r="D2" t="n">
         <v>134093.9955596919</v>
@@ -26349,7 +26349,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="N2" t="n">
-        <v>141236.5716516325</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="O2" t="n">
         <v>134093.9955596919</v>
@@ -26420,7 +26420,7 @@
         <v>8092.707817725994</v>
       </c>
       <c r="C4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="D4" t="n">
         <v>8092.707817725994</v>
@@ -26459,7 +26459,7 @@
         <v>8092.707817725995</v>
       </c>
       <c r="P4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11004.44621842857</v>
+        <v>-1633.715936431901</v>
       </c>
       <c r="C6" t="n">
-        <v>79878.20280011839</v>
+        <v>67240.04064525795</v>
       </c>
       <c r="D6" t="n">
-        <v>79878.20280011845</v>
+        <v>67240.04064525795</v>
       </c>
       <c r="E6" t="n">
-        <v>113505.8028001184</v>
+        <v>100867.640645258</v>
       </c>
       <c r="F6" t="n">
-        <v>113505.8028001184</v>
+        <v>100867.6406452579</v>
       </c>
       <c r="G6" t="n">
-        <v>108306.7488443613</v>
+        <v>96088.73822432088</v>
       </c>
       <c r="H6" t="n">
-        <v>118035.7918185284</v>
+        <v>105817.781198488</v>
       </c>
       <c r="I6" t="n">
-        <v>118035.7918185284</v>
+        <v>105817.781198488</v>
       </c>
       <c r="J6" t="n">
-        <v>64263.28092831901</v>
+        <v>52045.27030827858</v>
       </c>
       <c r="K6" t="n">
-        <v>118035.7918185285</v>
+        <v>105817.781198488</v>
       </c>
       <c r="L6" t="n">
-        <v>118035.7918185284</v>
+        <v>105817.781198488</v>
       </c>
       <c r="M6" t="n">
-        <v>118035.7918185285</v>
+        <v>105817.781198488</v>
       </c>
       <c r="N6" t="n">
-        <v>118035.7918185284</v>
+        <v>105817.781198488</v>
       </c>
       <c r="O6" t="n">
-        <v>113505.8028001185</v>
+        <v>100867.6406452579</v>
       </c>
       <c r="P6" t="n">
-        <v>113505.8028001184</v>
+        <v>100867.6406452579</v>
       </c>
     </row>
   </sheetData>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34713,10 +34713,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>130.2714255894491</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -34950,10 +34950,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N8" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35263,16 +35263,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35421,13 +35421,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O12" t="n">
-        <v>0.494781459797586</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N15" t="n">
-        <v>91.61977832229879</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>113.3808631277495</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36691,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36925,10 +36925,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37402,10 +37402,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37794,10 +37794,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,10 +38022,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
